--- a/Cold and Flu Data.xlsx
+++ b/Cold and Flu Data.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goodlife1-my.sharepoint.com/personal/vmukita_goodlife_africa_com/Documents/Desktop/MY PROJECTS/Cold and Flu/ARIMA-for-Cold-and-Flu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{9BF1A3D0-7C77-4193-AF98-EE056CD4B72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A91750EB-A878-42FB-B9CE-0DC94C747DE9}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{9BF1A3D0-7C77-4193-AF98-EE056CD4B72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{452161DD-09AD-4E7B-B061-21796B8858F0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{69DB2F36-62BC-4F95-BB39-8F2F28D468D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$2126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$I$1234</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6384" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6993" uniqueCount="204">
   <si>
     <t>Item</t>
   </si>
@@ -617,6 +619,30 @@
   <si>
     <t>ROBITUSSIN MUCUS COUGH AND CONGESTION RELIEF S/F  100ML</t>
   </si>
+  <si>
+    <t>SWISS HERBAL LOZENGES EUCALYPTUS &amp; MENTHOL 12S</t>
+  </si>
+  <si>
+    <t>TIXYLIX BABY SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY CAPLETS 24S</t>
+  </si>
+  <si>
+    <t>SWISS HERBAL LOZENGES SAGE 12S</t>
+  </si>
+  <si>
+    <t>RELIEF-COFF 200MLS</t>
+  </si>
+  <si>
+    <t>VICKS DAYQUIL COLD FLU LIQUICAP 24S</t>
+  </si>
+  <si>
+    <t>VICKS DAYQUIL COLD FLU LIQUID</t>
+  </si>
+  <si>
+    <t>VICKS NYQUIL COLD FLU LIQUICAP 24S</t>
+  </si>
 </sst>
 </file>
 
@@ -679,6 +705,14 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -979,11 +1013,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EE165A-14A1-4021-B04B-56BB1DBE6CCB}">
-  <dimension ref="A1:I2126"/>
+  <dimension ref="A1:I2329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2116" workbookViewId="0">
-      <selection activeCell="C2124" sqref="C2124"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -62644,8 +62676,5908 @@
         <v>1524.82</v>
       </c>
     </row>
+    <row r="2127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2127">
+        <v>1100112</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2127">
+        <v>2023</v>
+      </c>
+      <c r="E2127">
+        <v>11</v>
+      </c>
+      <c r="F2127" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2127">
+        <v>5</v>
+      </c>
+      <c r="H2127">
+        <v>1800</v>
+      </c>
+      <c r="I2127">
+        <v>3182.66</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2128">
+        <v>1100112</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2128">
+        <v>2023</v>
+      </c>
+      <c r="E2128">
+        <v>12</v>
+      </c>
+      <c r="F2128" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2128">
+        <v>1</v>
+      </c>
+      <c r="H2128">
+        <v>360</v>
+      </c>
+      <c r="I2128">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2129">
+        <v>1100383</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2129">
+        <v>2023</v>
+      </c>
+      <c r="E2129">
+        <v>11</v>
+      </c>
+      <c r="F2129" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2129">
+        <v>3</v>
+      </c>
+      <c r="H2129">
+        <v>3507</v>
+      </c>
+      <c r="I2129">
+        <v>5849.57</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2130">
+        <v>1100383</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2130">
+        <v>2023</v>
+      </c>
+      <c r="E2130">
+        <v>12</v>
+      </c>
+      <c r="F2130" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2130">
+        <v>5</v>
+      </c>
+      <c r="H2130">
+        <v>5845</v>
+      </c>
+      <c r="I2130">
+        <v>9780.82</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2131">
+        <v>1100530</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2131">
+        <v>2023</v>
+      </c>
+      <c r="E2131">
+        <v>11</v>
+      </c>
+      <c r="F2131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2131">
+        <v>1</v>
+      </c>
+      <c r="H2131">
+        <v>196.69</v>
+      </c>
+      <c r="I2131">
+        <v>324.02999999999997</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2132">
+        <v>1100530</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2132">
+        <v>2023</v>
+      </c>
+      <c r="E2132">
+        <v>12</v>
+      </c>
+      <c r="F2132" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2132">
+        <v>3</v>
+      </c>
+      <c r="H2132">
+        <v>590.07000000000005</v>
+      </c>
+      <c r="I2132">
+        <v>988.07</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2133">
+        <v>1100531</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2133">
+        <v>2023</v>
+      </c>
+      <c r="E2133">
+        <v>11</v>
+      </c>
+      <c r="F2133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2133">
+        <v>4</v>
+      </c>
+      <c r="H2133">
+        <v>1370.6</v>
+      </c>
+      <c r="I2133">
+        <v>2380.04</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2134">
+        <v>1100531</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2134">
+        <v>2023</v>
+      </c>
+      <c r="E2134">
+        <v>12</v>
+      </c>
+      <c r="F2134" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2134">
+        <v>4</v>
+      </c>
+      <c r="H2134">
+        <v>1370.6</v>
+      </c>
+      <c r="I2134">
+        <v>2296.14</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2135">
+        <v>1100686</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2135">
+        <v>2023</v>
+      </c>
+      <c r="E2135">
+        <v>11</v>
+      </c>
+      <c r="F2135" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2135">
+        <v>2</v>
+      </c>
+      <c r="H2135">
+        <v>240</v>
+      </c>
+      <c r="I2135">
+        <v>420.02</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2136">
+        <v>1100686</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2136">
+        <v>2023</v>
+      </c>
+      <c r="E2136">
+        <v>12</v>
+      </c>
+      <c r="F2136" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2136">
+        <v>3</v>
+      </c>
+      <c r="H2136">
+        <v>360</v>
+      </c>
+      <c r="I2136">
+        <v>610.29</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2137">
+        <v>1101039</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2137">
+        <v>2023</v>
+      </c>
+      <c r="E2137">
+        <v>11</v>
+      </c>
+      <c r="F2137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2137">
+        <v>2</v>
+      </c>
+      <c r="H2137">
+        <v>1680</v>
+      </c>
+      <c r="I2137">
+        <v>2665.85</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2138">
+        <v>1101039</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2138">
+        <v>2023</v>
+      </c>
+      <c r="E2138">
+        <v>12</v>
+      </c>
+      <c r="F2138" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2138">
+        <v>4</v>
+      </c>
+      <c r="H2138">
+        <v>3360</v>
+      </c>
+      <c r="I2138">
+        <v>5663.7</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2139">
+        <v>1101045</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2139">
+        <v>2023</v>
+      </c>
+      <c r="E2139">
+        <v>11</v>
+      </c>
+      <c r="F2139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2139">
+        <v>1</v>
+      </c>
+      <c r="H2139">
+        <v>974.7</v>
+      </c>
+      <c r="I2139">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2140">
+        <v>1101045</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2140">
+        <v>2023</v>
+      </c>
+      <c r="E2140">
+        <v>12</v>
+      </c>
+      <c r="F2140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2140">
+        <v>5</v>
+      </c>
+      <c r="H2140">
+        <v>4873.5</v>
+      </c>
+      <c r="I2140">
+        <v>7581.79</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2141">
+        <v>1101046</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2141">
+        <v>2023</v>
+      </c>
+      <c r="E2141">
+        <v>11</v>
+      </c>
+      <c r="F2141" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2141">
+        <v>1</v>
+      </c>
+      <c r="H2141">
+        <v>1200</v>
+      </c>
+      <c r="I2141">
+        <v>1805.94</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2142">
+        <v>1101046</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2142">
+        <v>2023</v>
+      </c>
+      <c r="E2142">
+        <v>12</v>
+      </c>
+      <c r="F2142" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2142">
+        <v>7</v>
+      </c>
+      <c r="H2142">
+        <v>8400</v>
+      </c>
+      <c r="I2142">
+        <v>13807.74</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2143">
+        <v>1101049</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2143">
+        <v>2023</v>
+      </c>
+      <c r="E2143">
+        <v>11</v>
+      </c>
+      <c r="F2143" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2143">
+        <v>3</v>
+      </c>
+      <c r="H2143">
+        <v>2280</v>
+      </c>
+      <c r="I2143">
+        <v>4911.1400000000003</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2144">
+        <v>1101049</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2144">
+        <v>2023</v>
+      </c>
+      <c r="E2144">
+        <v>12</v>
+      </c>
+      <c r="F2144" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2144">
+        <v>2</v>
+      </c>
+      <c r="H2144">
+        <v>1520</v>
+      </c>
+      <c r="I2144">
+        <v>3300.57</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2145">
+        <v>1101051</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2145">
+        <v>2023</v>
+      </c>
+      <c r="E2145">
+        <v>12</v>
+      </c>
+      <c r="F2145" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2145">
+        <v>6</v>
+      </c>
+      <c r="H2145">
+        <v>5940</v>
+      </c>
+      <c r="I2145">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2146">
+        <v>1101053</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2146">
+        <v>2023</v>
+      </c>
+      <c r="E2146">
+        <v>11</v>
+      </c>
+      <c r="F2146" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2146">
+        <v>3</v>
+      </c>
+      <c r="H2146">
+        <v>2025</v>
+      </c>
+      <c r="I2146">
+        <v>2325.0100000000002</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2147">
+        <v>1101053</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2147">
+        <v>2023</v>
+      </c>
+      <c r="E2147">
+        <v>12</v>
+      </c>
+      <c r="F2147" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2147">
+        <v>16</v>
+      </c>
+      <c r="H2147">
+        <v>10800</v>
+      </c>
+      <c r="I2147">
+        <v>17305.75</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2148">
+        <v>1101054</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2148">
+        <v>2023</v>
+      </c>
+      <c r="E2148">
+        <v>11</v>
+      </c>
+      <c r="F2148" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2148">
+        <v>4</v>
+      </c>
+      <c r="H2148">
+        <v>2700</v>
+      </c>
+      <c r="I2148">
+        <v>3024.08</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2149">
+        <v>1101054</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2149">
+        <v>2023</v>
+      </c>
+      <c r="E2149">
+        <v>12</v>
+      </c>
+      <c r="F2149" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2149">
+        <v>11</v>
+      </c>
+      <c r="H2149">
+        <v>7425</v>
+      </c>
+      <c r="I2149">
+        <v>8271.27</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2150">
+        <v>1101056</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2150">
+        <v>2023</v>
+      </c>
+      <c r="E2150">
+        <v>12</v>
+      </c>
+      <c r="F2150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2150">
+        <v>5</v>
+      </c>
+      <c r="H2150">
+        <v>2245.5</v>
+      </c>
+      <c r="I2150">
+        <v>3681.22</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2151">
+        <v>1101083</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2151">
+        <v>2023</v>
+      </c>
+      <c r="E2151">
+        <v>11</v>
+      </c>
+      <c r="F2151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2151">
+        <v>4</v>
+      </c>
+      <c r="H2151">
+        <v>1533.4</v>
+      </c>
+      <c r="I2151">
+        <v>2620.6799999999998</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2152">
+        <v>1101083</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2152">
+        <v>2023</v>
+      </c>
+      <c r="E2152">
+        <v>12</v>
+      </c>
+      <c r="F2152" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2152">
+        <v>5</v>
+      </c>
+      <c r="H2152">
+        <v>1916.75</v>
+      </c>
+      <c r="I2152">
+        <v>3214.27</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2153">
+        <v>1101084</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2153">
+        <v>2023</v>
+      </c>
+      <c r="E2153">
+        <v>11</v>
+      </c>
+      <c r="F2153" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2153">
+        <v>6</v>
+      </c>
+      <c r="H2153">
+        <v>3375</v>
+      </c>
+      <c r="I2153">
+        <v>5516.56</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2154">
+        <v>1101084</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2154">
+        <v>2023</v>
+      </c>
+      <c r="E2154">
+        <v>12</v>
+      </c>
+      <c r="F2154" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2154">
+        <v>3</v>
+      </c>
+      <c r="H2154">
+        <v>1687.5</v>
+      </c>
+      <c r="I2154">
+        <v>2780.77</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2155">
+        <v>1101165</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2155">
+        <v>2023</v>
+      </c>
+      <c r="E2155">
+        <v>11</v>
+      </c>
+      <c r="F2155" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2155">
+        <v>1</v>
+      </c>
+      <c r="H2155">
+        <v>790</v>
+      </c>
+      <c r="I2155">
+        <v>1281.79</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2156">
+        <v>1101165</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2156">
+        <v>2023</v>
+      </c>
+      <c r="E2156">
+        <v>12</v>
+      </c>
+      <c r="F2156" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2156">
+        <v>1</v>
+      </c>
+      <c r="H2156">
+        <v>790</v>
+      </c>
+      <c r="I2156">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2157">
+        <v>1101168</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2157">
+        <v>2023</v>
+      </c>
+      <c r="E2157">
+        <v>11</v>
+      </c>
+      <c r="F2157" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2157">
+        <v>2</v>
+      </c>
+      <c r="H2157">
+        <v>2372</v>
+      </c>
+      <c r="I2157">
+        <v>3850.12</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2158">
+        <v>1101168</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2158">
+        <v>2023</v>
+      </c>
+      <c r="E2158">
+        <v>12</v>
+      </c>
+      <c r="F2158" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2158">
+        <v>2</v>
+      </c>
+      <c r="H2158">
+        <v>2372</v>
+      </c>
+      <c r="I2158">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2159">
+        <v>1101727</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2159">
+        <v>2023</v>
+      </c>
+      <c r="E2159">
+        <v>11</v>
+      </c>
+      <c r="F2159" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2159">
+        <v>1</v>
+      </c>
+      <c r="H2159">
+        <v>100</v>
+      </c>
+      <c r="I2159">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2160">
+        <v>1101727</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2160">
+        <v>2023</v>
+      </c>
+      <c r="E2160">
+        <v>12</v>
+      </c>
+      <c r="F2160" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2160">
+        <v>4</v>
+      </c>
+      <c r="H2160">
+        <v>400</v>
+      </c>
+      <c r="I2160">
+        <v>722.62</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2161">
+        <v>1101753</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2161">
+        <v>2023</v>
+      </c>
+      <c r="E2161">
+        <v>11</v>
+      </c>
+      <c r="F2161" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2161">
+        <v>2</v>
+      </c>
+      <c r="H2161">
+        <v>1160.6400000000001</v>
+      </c>
+      <c r="I2161">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2162">
+        <v>1101768</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2162">
+        <v>2023</v>
+      </c>
+      <c r="E2162">
+        <v>11</v>
+      </c>
+      <c r="F2162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2162">
+        <v>1</v>
+      </c>
+      <c r="H2162">
+        <v>1000</v>
+      </c>
+      <c r="I2162">
+        <v>1672.52</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2163">
+        <v>1101768</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2163">
+        <v>2023</v>
+      </c>
+      <c r="E2163">
+        <v>12</v>
+      </c>
+      <c r="F2163" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2163">
+        <v>6</v>
+      </c>
+      <c r="H2163">
+        <v>6000</v>
+      </c>
+      <c r="I2163">
+        <v>10200.07</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2164">
+        <v>1102332</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2164">
+        <v>2023</v>
+      </c>
+      <c r="E2164">
+        <v>11</v>
+      </c>
+      <c r="F2164" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2164">
+        <v>2</v>
+      </c>
+      <c r="H2164">
+        <v>154.1</v>
+      </c>
+      <c r="I2164">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2165">
+        <v>1102332</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2165">
+        <v>2023</v>
+      </c>
+      <c r="E2165">
+        <v>12</v>
+      </c>
+      <c r="F2165" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2165">
+        <v>3</v>
+      </c>
+      <c r="H2165">
+        <v>231.15</v>
+      </c>
+      <c r="I2165">
+        <v>392.31</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2166">
+        <v>1102334</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2166">
+        <v>2023</v>
+      </c>
+      <c r="E2166">
+        <v>11</v>
+      </c>
+      <c r="F2166" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2166">
+        <v>6</v>
+      </c>
+      <c r="H2166">
+        <v>534.78</v>
+      </c>
+      <c r="I2166">
+        <v>908.15</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2167">
+        <v>1102334</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2167">
+        <v>2023</v>
+      </c>
+      <c r="E2167">
+        <v>12</v>
+      </c>
+      <c r="F2167" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2167">
+        <v>18</v>
+      </c>
+      <c r="H2167">
+        <v>1604.34</v>
+      </c>
+      <c r="I2167">
+        <v>2724.47</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2168">
+        <v>1102336</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2168">
+        <v>2023</v>
+      </c>
+      <c r="E2168">
+        <v>12</v>
+      </c>
+      <c r="F2168" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2168">
+        <v>2</v>
+      </c>
+      <c r="H2168">
+        <v>157.56</v>
+      </c>
+      <c r="I2168">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2169">
+        <v>1104244</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2169">
+        <v>2023</v>
+      </c>
+      <c r="E2169">
+        <v>11</v>
+      </c>
+      <c r="F2169" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2169">
+        <v>5</v>
+      </c>
+      <c r="H2169">
+        <v>825</v>
+      </c>
+      <c r="I2169">
+        <v>1355.56</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2170">
+        <v>1104244</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2170">
+        <v>2023</v>
+      </c>
+      <c r="E2170">
+        <v>12</v>
+      </c>
+      <c r="F2170" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2170">
+        <v>4</v>
+      </c>
+      <c r="H2170">
+        <v>660</v>
+      </c>
+      <c r="I2170">
+        <v>1144.8599999999999</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2171">
+        <v>1104246</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2171">
+        <v>2023</v>
+      </c>
+      <c r="E2171">
+        <v>11</v>
+      </c>
+      <c r="F2171" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2171">
+        <v>5</v>
+      </c>
+      <c r="H2171">
+        <v>850</v>
+      </c>
+      <c r="I2171">
+        <v>1370.67</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2172">
+        <v>1104247</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2172">
+        <v>2023</v>
+      </c>
+      <c r="E2172">
+        <v>12</v>
+      </c>
+      <c r="F2172" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2172">
+        <v>8</v>
+      </c>
+      <c r="H2172">
+        <v>1360</v>
+      </c>
+      <c r="I2172">
+        <v>2472.89</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2173">
+        <v>1104248</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2173">
+        <v>2023</v>
+      </c>
+      <c r="E2173">
+        <v>11</v>
+      </c>
+      <c r="F2173" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2173">
+        <v>5</v>
+      </c>
+      <c r="H2173">
+        <v>825</v>
+      </c>
+      <c r="I2173">
+        <v>1534.86</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2174">
+        <v>1104248</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2174">
+        <v>2023</v>
+      </c>
+      <c r="E2174">
+        <v>12</v>
+      </c>
+      <c r="F2174" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2174">
+        <v>4</v>
+      </c>
+      <c r="H2174">
+        <v>660</v>
+      </c>
+      <c r="I2174">
+        <v>1215.8800000000001</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2175">
+        <v>1104249</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2175">
+        <v>2023</v>
+      </c>
+      <c r="E2175">
+        <v>11</v>
+      </c>
+      <c r="F2175" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2175">
+        <v>3</v>
+      </c>
+      <c r="H2175">
+        <v>510</v>
+      </c>
+      <c r="I2175">
+        <v>814.82</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2176">
+        <v>1104249</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2176">
+        <v>2023</v>
+      </c>
+      <c r="E2176">
+        <v>12</v>
+      </c>
+      <c r="F2176" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2176">
+        <v>2</v>
+      </c>
+      <c r="H2176">
+        <v>340</v>
+      </c>
+      <c r="I2176">
+        <v>569.47</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2177">
+        <v>1104250</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2177">
+        <v>2023</v>
+      </c>
+      <c r="E2177">
+        <v>11</v>
+      </c>
+      <c r="F2177" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2177">
+        <v>1</v>
+      </c>
+      <c r="H2177">
+        <v>170</v>
+      </c>
+      <c r="I2177">
+        <v>271.11</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2178">
+        <v>1104250</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2178">
+        <v>2023</v>
+      </c>
+      <c r="E2178">
+        <v>12</v>
+      </c>
+      <c r="F2178" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2178">
+        <v>4</v>
+      </c>
+      <c r="H2178">
+        <v>680</v>
+      </c>
+      <c r="I2178">
+        <v>1131.08</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2179">
+        <v>1104385</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2179">
+        <v>2023</v>
+      </c>
+      <c r="E2179">
+        <v>11</v>
+      </c>
+      <c r="F2179" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2179">
+        <v>8</v>
+      </c>
+      <c r="H2179">
+        <v>885.6</v>
+      </c>
+      <c r="I2179">
+        <v>1532.57</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2180">
+        <v>1104385</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2180">
+        <v>2023</v>
+      </c>
+      <c r="E2180">
+        <v>12</v>
+      </c>
+      <c r="F2180" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2180">
+        <v>30</v>
+      </c>
+      <c r="H2180">
+        <v>3321</v>
+      </c>
+      <c r="I2180">
+        <v>5721.94</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2181">
+        <v>1104386</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2181">
+        <v>2023</v>
+      </c>
+      <c r="E2181">
+        <v>12</v>
+      </c>
+      <c r="F2181" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2181">
+        <v>3</v>
+      </c>
+      <c r="H2181">
+        <v>744</v>
+      </c>
+      <c r="I2181">
+        <v>1249.58</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2182">
+        <v>1104388</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2182">
+        <v>2023</v>
+      </c>
+      <c r="E2182">
+        <v>12</v>
+      </c>
+      <c r="F2182" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2182">
+        <v>2</v>
+      </c>
+      <c r="H2182">
+        <v>496</v>
+      </c>
+      <c r="I2182">
+        <v>839.79</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2183">
+        <v>1105907</v>
+      </c>
+      <c r="B2183" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2183">
+        <v>2023</v>
+      </c>
+      <c r="E2183">
+        <v>11</v>
+      </c>
+      <c r="F2183" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2183">
+        <v>50</v>
+      </c>
+      <c r="H2183">
+        <v>2100</v>
+      </c>
+      <c r="I2183">
+        <v>4259.58</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2184">
+        <v>1105907</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2184">
+        <v>2023</v>
+      </c>
+      <c r="E2184">
+        <v>12</v>
+      </c>
+      <c r="F2184" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2184">
+        <v>90</v>
+      </c>
+      <c r="H2184">
+        <v>3780</v>
+      </c>
+      <c r="I2184">
+        <v>7537.9</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2185">
+        <v>1106314</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2185">
+        <v>2023</v>
+      </c>
+      <c r="E2185">
+        <v>11</v>
+      </c>
+      <c r="F2185" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2185">
+        <v>10</v>
+      </c>
+      <c r="H2185">
+        <v>745</v>
+      </c>
+      <c r="I2185">
+        <v>1782.11</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2186">
+        <v>1106314</v>
+      </c>
+      <c r="B2186" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2186">
+        <v>2023</v>
+      </c>
+      <c r="E2186">
+        <v>12</v>
+      </c>
+      <c r="F2186" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2186">
+        <v>10</v>
+      </c>
+      <c r="H2186">
+        <v>745</v>
+      </c>
+      <c r="I2186">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2187">
+        <v>1106328</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2187">
+        <v>2023</v>
+      </c>
+      <c r="E2187">
+        <v>11</v>
+      </c>
+      <c r="F2187" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2187">
+        <v>1</v>
+      </c>
+      <c r="H2187">
+        <v>99</v>
+      </c>
+      <c r="I2187">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2188">
+        <v>1106328</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2188">
+        <v>2023</v>
+      </c>
+      <c r="E2188">
+        <v>12</v>
+      </c>
+      <c r="F2188" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2188">
+        <v>30</v>
+      </c>
+      <c r="H2188">
+        <v>2970</v>
+      </c>
+      <c r="I2188">
+        <v>5376.1</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2189">
+        <v>1106329</v>
+      </c>
+      <c r="B2189" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2189" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2189">
+        <v>2023</v>
+      </c>
+      <c r="E2189">
+        <v>11</v>
+      </c>
+      <c r="F2189" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2189">
+        <v>70</v>
+      </c>
+      <c r="H2189">
+        <v>7350</v>
+      </c>
+      <c r="I2189">
+        <v>11921</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2190">
+        <v>1106329</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2190">
+        <v>2023</v>
+      </c>
+      <c r="E2190">
+        <v>12</v>
+      </c>
+      <c r="F2190" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2190">
+        <v>60</v>
+      </c>
+      <c r="H2190">
+        <v>6300</v>
+      </c>
+      <c r="I2190">
+        <v>9765</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2191">
+        <v>1107168</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2191">
+        <v>2023</v>
+      </c>
+      <c r="E2191">
+        <v>11</v>
+      </c>
+      <c r="F2191" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2191">
+        <v>8</v>
+      </c>
+      <c r="H2191">
+        <v>5102.96</v>
+      </c>
+      <c r="I2191">
+        <v>6952.68</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2192">
+        <v>1107168</v>
+      </c>
+      <c r="B2192" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2192">
+        <v>2023</v>
+      </c>
+      <c r="E2192">
+        <v>12</v>
+      </c>
+      <c r="F2192" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2192">
+        <v>8</v>
+      </c>
+      <c r="H2192">
+        <v>5102.96</v>
+      </c>
+      <c r="I2192">
+        <v>6910.85</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2193">
+        <v>1107358</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2193">
+        <v>2023</v>
+      </c>
+      <c r="E2193">
+        <v>12</v>
+      </c>
+      <c r="F2193" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2193">
+        <v>2</v>
+      </c>
+      <c r="H2193">
+        <v>1077.2</v>
+      </c>
+      <c r="I2193">
+        <v>1796.78</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2194">
+        <v>1107685</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2194" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2194">
+        <v>2023</v>
+      </c>
+      <c r="E2194">
+        <v>12</v>
+      </c>
+      <c r="F2194" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2194">
+        <v>4</v>
+      </c>
+      <c r="H2194">
+        <v>116</v>
+      </c>
+      <c r="I2194">
+        <v>214.84</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2195">
+        <v>1107754</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2195">
+        <v>2023</v>
+      </c>
+      <c r="E2195">
+        <v>11</v>
+      </c>
+      <c r="F2195" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2195">
+        <v>1</v>
+      </c>
+      <c r="H2195">
+        <v>110</v>
+      </c>
+      <c r="I2195">
+        <v>190.61</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2196">
+        <v>1107754</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2196">
+        <v>2023</v>
+      </c>
+      <c r="E2196">
+        <v>12</v>
+      </c>
+      <c r="F2196" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2196">
+        <v>1</v>
+      </c>
+      <c r="H2196">
+        <v>110</v>
+      </c>
+      <c r="I2196">
+        <v>200.01</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2197">
+        <v>1107803</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2197" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2197">
+        <v>2023</v>
+      </c>
+      <c r="E2197">
+        <v>12</v>
+      </c>
+      <c r="F2197" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2197">
+        <v>3</v>
+      </c>
+      <c r="H2197">
+        <v>4500</v>
+      </c>
+      <c r="I2197">
+        <v>6318.39</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2198">
+        <v>1107922</v>
+      </c>
+      <c r="B2198" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2198" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2198">
+        <v>2023</v>
+      </c>
+      <c r="E2198">
+        <v>12</v>
+      </c>
+      <c r="F2198" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2198">
+        <v>2</v>
+      </c>
+      <c r="H2198">
+        <v>1164</v>
+      </c>
+      <c r="I2198">
+        <v>1925.06</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2199">
+        <v>1107924</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2199">
+        <v>2023</v>
+      </c>
+      <c r="E2199">
+        <v>12</v>
+      </c>
+      <c r="F2199" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2199">
+        <v>1</v>
+      </c>
+      <c r="H2199">
+        <v>660</v>
+      </c>
+      <c r="I2199">
+        <v>1086.42</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2200">
+        <v>1108196</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2200">
+        <v>2023</v>
+      </c>
+      <c r="E2200">
+        <v>11</v>
+      </c>
+      <c r="F2200" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2200">
+        <v>1</v>
+      </c>
+      <c r="H2200">
+        <v>507.14</v>
+      </c>
+      <c r="I2200">
+        <v>855.01</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2201">
+        <v>1108196</v>
+      </c>
+      <c r="B2201" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2201" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2201">
+        <v>2023</v>
+      </c>
+      <c r="E2201">
+        <v>12</v>
+      </c>
+      <c r="F2201" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2201">
+        <v>5</v>
+      </c>
+      <c r="H2201">
+        <v>2535.6999999999998</v>
+      </c>
+      <c r="I2201">
+        <v>4234.8599999999997</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2202">
+        <v>1108197</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2202" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2202">
+        <v>2023</v>
+      </c>
+      <c r="E2202">
+        <v>12</v>
+      </c>
+      <c r="F2202" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2202">
+        <v>2</v>
+      </c>
+      <c r="H2202">
+        <v>1014.46</v>
+      </c>
+      <c r="I2202">
+        <v>1629.64</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2203">
+        <v>1108290</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2203" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2203">
+        <v>2023</v>
+      </c>
+      <c r="E2203">
+        <v>11</v>
+      </c>
+      <c r="F2203" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2203">
+        <v>7</v>
+      </c>
+      <c r="H2203">
+        <v>1820</v>
+      </c>
+      <c r="I2203">
+        <v>3406.97</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2204">
+        <v>1108290</v>
+      </c>
+      <c r="B2204" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2204" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2204">
+        <v>2023</v>
+      </c>
+      <c r="E2204">
+        <v>12</v>
+      </c>
+      <c r="F2204" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2204">
+        <v>21</v>
+      </c>
+      <c r="H2204">
+        <v>5460</v>
+      </c>
+      <c r="I2204">
+        <v>10105.76</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2205">
+        <v>1108573</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2205" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2205">
+        <v>2023</v>
+      </c>
+      <c r="E2205">
+        <v>12</v>
+      </c>
+      <c r="F2205" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2205">
+        <v>3</v>
+      </c>
+      <c r="H2205">
+        <v>1141.56</v>
+      </c>
+      <c r="I2205">
+        <v>1884.96</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2206">
+        <v>1108574</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2206" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2206">
+        <v>2023</v>
+      </c>
+      <c r="E2206">
+        <v>11</v>
+      </c>
+      <c r="F2206" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2206">
+        <v>3</v>
+      </c>
+      <c r="H2206">
+        <v>986.04</v>
+      </c>
+      <c r="I2206">
+        <v>1598.3</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2207">
+        <v>1108574</v>
+      </c>
+      <c r="B2207" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2207" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2207">
+        <v>2023</v>
+      </c>
+      <c r="E2207">
+        <v>12</v>
+      </c>
+      <c r="F2207" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2207">
+        <v>11</v>
+      </c>
+      <c r="H2207">
+        <v>3615.48</v>
+      </c>
+      <c r="I2207">
+        <v>5972.45</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2208">
+        <v>1109072</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2208" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2208">
+        <v>2023</v>
+      </c>
+      <c r="E2208">
+        <v>11</v>
+      </c>
+      <c r="F2208" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2208">
+        <v>5</v>
+      </c>
+      <c r="H2208">
+        <v>1070.3</v>
+      </c>
+      <c r="I2208">
+        <v>2008.92</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2209">
+        <v>1109072</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2209" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2209">
+        <v>2023</v>
+      </c>
+      <c r="E2209">
+        <v>12</v>
+      </c>
+      <c r="F2209" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2209">
+        <v>3</v>
+      </c>
+      <c r="H2209">
+        <v>642.17999999999995</v>
+      </c>
+      <c r="I2209">
+        <v>1209.2</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2210">
+        <v>1109253</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2210">
+        <v>2023</v>
+      </c>
+      <c r="E2210">
+        <v>11</v>
+      </c>
+      <c r="F2210" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2210">
+        <v>6</v>
+      </c>
+      <c r="H2210">
+        <v>2826.9</v>
+      </c>
+      <c r="I2210">
+        <v>4957.8999999999996</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2211">
+        <v>1109253</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2211">
+        <v>2023</v>
+      </c>
+      <c r="E2211">
+        <v>12</v>
+      </c>
+      <c r="F2211" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2211">
+        <v>10</v>
+      </c>
+      <c r="H2211">
+        <v>4711.5</v>
+      </c>
+      <c r="I2211">
+        <v>8478.74</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2212">
+        <v>1109845</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2212" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2212">
+        <v>2023</v>
+      </c>
+      <c r="E2212">
+        <v>11</v>
+      </c>
+      <c r="F2212" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2212">
+        <v>2</v>
+      </c>
+      <c r="H2212">
+        <v>1760</v>
+      </c>
+      <c r="I2212">
+        <v>2887.6</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2213">
+        <v>1109845</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2213" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2213">
+        <v>2023</v>
+      </c>
+      <c r="E2213">
+        <v>12</v>
+      </c>
+      <c r="F2213" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2213">
+        <v>1</v>
+      </c>
+      <c r="H2213">
+        <v>880</v>
+      </c>
+      <c r="I2213">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2214">
+        <v>1110104</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2214">
+        <v>2023</v>
+      </c>
+      <c r="E2214">
+        <v>11</v>
+      </c>
+      <c r="F2214" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2214">
+        <v>1</v>
+      </c>
+      <c r="H2214">
+        <v>1250</v>
+      </c>
+      <c r="I2214">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2215">
+        <v>1110104</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2215" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2215">
+        <v>2023</v>
+      </c>
+      <c r="E2215">
+        <v>12</v>
+      </c>
+      <c r="F2215" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2215">
+        <v>3</v>
+      </c>
+      <c r="H2215">
+        <v>3750</v>
+      </c>
+      <c r="I2215">
+        <v>6408.01</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2216">
+        <v>1110141</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2216">
+        <v>2023</v>
+      </c>
+      <c r="E2216">
+        <v>11</v>
+      </c>
+      <c r="F2216" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2216">
+        <v>2</v>
+      </c>
+      <c r="H2216">
+        <v>1980</v>
+      </c>
+      <c r="I2216">
+        <v>3155.81</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2217">
+        <v>1110141</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2217" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2217">
+        <v>2023</v>
+      </c>
+      <c r="E2217">
+        <v>12</v>
+      </c>
+      <c r="F2217" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2217">
+        <v>4</v>
+      </c>
+      <c r="H2217">
+        <v>3960</v>
+      </c>
+      <c r="I2217">
+        <v>6502.43</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2218">
+        <v>1110152</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2218">
+        <v>2023</v>
+      </c>
+      <c r="E2218">
+        <v>11</v>
+      </c>
+      <c r="F2218" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2218">
+        <v>1</v>
+      </c>
+      <c r="H2218">
+        <v>1100</v>
+      </c>
+      <c r="I2218">
+        <v>1453.33</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2219">
+        <v>1110152</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2219">
+        <v>2023</v>
+      </c>
+      <c r="E2219">
+        <v>12</v>
+      </c>
+      <c r="F2219" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2219">
+        <v>3</v>
+      </c>
+      <c r="H2219">
+        <v>3300</v>
+      </c>
+      <c r="I2219">
+        <v>4431.66</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2220">
+        <v>1110154</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2220">
+        <v>2023</v>
+      </c>
+      <c r="E2220">
+        <v>11</v>
+      </c>
+      <c r="F2220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2220">
+        <v>1</v>
+      </c>
+      <c r="H2220">
+        <v>700</v>
+      </c>
+      <c r="I2220">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2221">
+        <v>1110154</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2221" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2221">
+        <v>2023</v>
+      </c>
+      <c r="E2221">
+        <v>12</v>
+      </c>
+      <c r="F2221" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2221">
+        <v>3</v>
+      </c>
+      <c r="H2221">
+        <v>2100</v>
+      </c>
+      <c r="I2221">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2222">
+        <v>1110169</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2222" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2222">
+        <v>2023</v>
+      </c>
+      <c r="E2222">
+        <v>11</v>
+      </c>
+      <c r="F2222" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2222">
+        <v>3</v>
+      </c>
+      <c r="H2222">
+        <v>1980</v>
+      </c>
+      <c r="I2222">
+        <v>3381.19</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2223">
+        <v>1110169</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2223" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2223">
+        <v>2023</v>
+      </c>
+      <c r="E2223">
+        <v>12</v>
+      </c>
+      <c r="F2223" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2223">
+        <v>3</v>
+      </c>
+      <c r="H2223">
+        <v>1980</v>
+      </c>
+      <c r="I2223">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2224">
+        <v>1110545</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2224">
+        <v>2023</v>
+      </c>
+      <c r="E2224">
+        <v>12</v>
+      </c>
+      <c r="F2224" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2224">
+        <v>3</v>
+      </c>
+      <c r="H2224">
+        <v>2835</v>
+      </c>
+      <c r="I2224">
+        <v>4813.3900000000003</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2225">
+        <v>1111105</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2225" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2225">
+        <v>2023</v>
+      </c>
+      <c r="E2225">
+        <v>11</v>
+      </c>
+      <c r="F2225" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2225">
+        <v>2</v>
+      </c>
+      <c r="H2225">
+        <v>970</v>
+      </c>
+      <c r="I2225">
+        <v>1298.75</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2226">
+        <v>1111105</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2226">
+        <v>2023</v>
+      </c>
+      <c r="E2226">
+        <v>12</v>
+      </c>
+      <c r="F2226" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2226">
+        <v>2</v>
+      </c>
+      <c r="H2226">
+        <v>970</v>
+      </c>
+      <c r="I2226">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2227">
+        <v>1111108</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2227">
+        <v>2023</v>
+      </c>
+      <c r="E2227">
+        <v>11</v>
+      </c>
+      <c r="F2227" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2227">
+        <v>3</v>
+      </c>
+      <c r="H2227">
+        <v>2310</v>
+      </c>
+      <c r="I2227">
+        <v>5743.59</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2228">
+        <v>1111108</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2228" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2228">
+        <v>2023</v>
+      </c>
+      <c r="E2228">
+        <v>12</v>
+      </c>
+      <c r="F2228" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2228">
+        <v>4</v>
+      </c>
+      <c r="H2228">
+        <v>3080</v>
+      </c>
+      <c r="I2228">
+        <v>7688.59</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2229">
+        <v>1111113</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2229">
+        <v>2023</v>
+      </c>
+      <c r="E2229">
+        <v>11</v>
+      </c>
+      <c r="F2229" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2229">
+        <v>1</v>
+      </c>
+      <c r="H2229">
+        <v>660</v>
+      </c>
+      <c r="I2229">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2230">
+        <v>1111114</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2230">
+        <v>2023</v>
+      </c>
+      <c r="E2230">
+        <v>11</v>
+      </c>
+      <c r="F2230" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2230">
+        <v>1</v>
+      </c>
+      <c r="H2230">
+        <v>450</v>
+      </c>
+      <c r="I2230">
+        <v>643.28</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2231">
+        <v>1111114</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2231">
+        <v>2023</v>
+      </c>
+      <c r="E2231">
+        <v>12</v>
+      </c>
+      <c r="F2231" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2231">
+        <v>5</v>
+      </c>
+      <c r="H2231">
+        <v>2250</v>
+      </c>
+      <c r="I2231">
+        <v>3311.56</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2232">
+        <v>1111115</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2232">
+        <v>2023</v>
+      </c>
+      <c r="E2232">
+        <v>11</v>
+      </c>
+      <c r="F2232" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2232">
+        <v>3</v>
+      </c>
+      <c r="H2232">
+        <v>2265</v>
+      </c>
+      <c r="I2232">
+        <v>3385.5</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2233">
+        <v>1111115</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2233">
+        <v>2023</v>
+      </c>
+      <c r="E2233">
+        <v>12</v>
+      </c>
+      <c r="F2233" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2233">
+        <v>3</v>
+      </c>
+      <c r="H2233">
+        <v>2265</v>
+      </c>
+      <c r="I2233">
+        <v>3440.25</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2234">
+        <v>1111474</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2234">
+        <v>2023</v>
+      </c>
+      <c r="E2234">
+        <v>12</v>
+      </c>
+      <c r="F2234" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2234">
+        <v>4</v>
+      </c>
+      <c r="H2234">
+        <v>764</v>
+      </c>
+      <c r="I2234">
+        <v>1347.58</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2235">
+        <v>1111820</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2235">
+        <v>2023</v>
+      </c>
+      <c r="E2235">
+        <v>11</v>
+      </c>
+      <c r="F2235" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2235">
+        <v>1</v>
+      </c>
+      <c r="H2235">
+        <v>1240</v>
+      </c>
+      <c r="I2235">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2236">
+        <v>1111820</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2236">
+        <v>2023</v>
+      </c>
+      <c r="E2236">
+        <v>12</v>
+      </c>
+      <c r="F2236" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2236">
+        <v>5</v>
+      </c>
+      <c r="H2236">
+        <v>6200</v>
+      </c>
+      <c r="I2236">
+        <v>10252.49</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2237">
+        <v>1111941</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2237">
+        <v>2023</v>
+      </c>
+      <c r="E2237">
+        <v>11</v>
+      </c>
+      <c r="F2237" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2237">
+        <v>3</v>
+      </c>
+      <c r="H2237">
+        <v>2460</v>
+      </c>
+      <c r="I2237">
+        <v>4274.22</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2238">
+        <v>1111941</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2238">
+        <v>2023</v>
+      </c>
+      <c r="E2238">
+        <v>12</v>
+      </c>
+      <c r="F2238" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2238">
+        <v>2</v>
+      </c>
+      <c r="H2238">
+        <v>1640</v>
+      </c>
+      <c r="I2238">
+        <v>2919.74</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2239">
+        <v>1112128</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2239">
+        <v>2023</v>
+      </c>
+      <c r="E2239">
+        <v>12</v>
+      </c>
+      <c r="F2239" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2239">
+        <v>1</v>
+      </c>
+      <c r="H2239">
+        <v>308.83</v>
+      </c>
+      <c r="I2239">
+        <v>514.63</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2240">
+        <v>1112542</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2240">
+        <v>2023</v>
+      </c>
+      <c r="E2240">
+        <v>11</v>
+      </c>
+      <c r="F2240" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2240">
+        <v>1</v>
+      </c>
+      <c r="H2240">
+        <v>960</v>
+      </c>
+      <c r="I2240">
+        <v>1696.34</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2241">
+        <v>1113918</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2241">
+        <v>2023</v>
+      </c>
+      <c r="E2241">
+        <v>11</v>
+      </c>
+      <c r="F2241" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2241">
+        <v>1</v>
+      </c>
+      <c r="H2241">
+        <v>990</v>
+      </c>
+      <c r="I2241">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2242">
+        <v>1113918</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2242">
+        <v>2023</v>
+      </c>
+      <c r="E2242">
+        <v>12</v>
+      </c>
+      <c r="F2242" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2242">
+        <v>8</v>
+      </c>
+      <c r="H2242">
+        <v>7920</v>
+      </c>
+      <c r="I2242">
+        <v>13338.66</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2243">
+        <v>1115556</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2243">
+        <v>2023</v>
+      </c>
+      <c r="E2243">
+        <v>11</v>
+      </c>
+      <c r="F2243" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2243">
+        <v>1</v>
+      </c>
+      <c r="H2243">
+        <v>1189</v>
+      </c>
+      <c r="I2243">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2244">
+        <v>1115556</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2244">
+        <v>2023</v>
+      </c>
+      <c r="E2244">
+        <v>12</v>
+      </c>
+      <c r="F2244" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2244">
+        <v>3</v>
+      </c>
+      <c r="H2244">
+        <v>3567</v>
+      </c>
+      <c r="I2244">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2245">
+        <v>1116125</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2245">
+        <v>2023</v>
+      </c>
+      <c r="E2245">
+        <v>11</v>
+      </c>
+      <c r="F2245" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2245">
+        <v>1</v>
+      </c>
+      <c r="H2245">
+        <v>840</v>
+      </c>
+      <c r="I2245">
+        <v>1310.3800000000001</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2246">
+        <v>1116125</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2246" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2246">
+        <v>2023</v>
+      </c>
+      <c r="E2246">
+        <v>12</v>
+      </c>
+      <c r="F2246" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2246">
+        <v>5</v>
+      </c>
+      <c r="H2246">
+        <v>4200</v>
+      </c>
+      <c r="I2246">
+        <v>7077.76</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2247">
+        <v>1117142</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2247">
+        <v>2023</v>
+      </c>
+      <c r="E2247">
+        <v>11</v>
+      </c>
+      <c r="F2247" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2247">
+        <v>3</v>
+      </c>
+      <c r="H2247">
+        <v>2967</v>
+      </c>
+      <c r="I2247">
+        <v>5133.63</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2248">
+        <v>1117142</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2248" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2248">
+        <v>2023</v>
+      </c>
+      <c r="E2248">
+        <v>12</v>
+      </c>
+      <c r="F2248" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2248">
+        <v>7</v>
+      </c>
+      <c r="H2248">
+        <v>6923</v>
+      </c>
+      <c r="I2248">
+        <v>11576.32</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2249">
+        <v>1117243</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2249" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2249">
+        <v>2023</v>
+      </c>
+      <c r="E2249">
+        <v>12</v>
+      </c>
+      <c r="F2249" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2249">
+        <v>1</v>
+      </c>
+      <c r="H2249">
+        <v>273.82</v>
+      </c>
+      <c r="I2249">
+        <v>466.97</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2250">
+        <v>1117962</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2250">
+        <v>2023</v>
+      </c>
+      <c r="E2250">
+        <v>11</v>
+      </c>
+      <c r="F2250" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2250">
+        <v>218</v>
+      </c>
+      <c r="H2250">
+        <v>2667.6660000000002</v>
+      </c>
+      <c r="I2250">
+        <v>4550.5600000000004</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2251">
+        <v>1117962</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2251">
+        <v>2023</v>
+      </c>
+      <c r="E2251">
+        <v>12</v>
+      </c>
+      <c r="F2251" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2251">
+        <v>61</v>
+      </c>
+      <c r="H2251">
+        <v>746.45699999999999</v>
+      </c>
+      <c r="I2251">
+        <v>1254.95</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2252">
+        <v>1118047</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2252" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2252">
+        <v>2023</v>
+      </c>
+      <c r="E2252">
+        <v>11</v>
+      </c>
+      <c r="F2252" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2252">
+        <v>1</v>
+      </c>
+      <c r="H2252">
+        <v>820</v>
+      </c>
+      <c r="I2252">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2253">
+        <v>1118047</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2253" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2253">
+        <v>2023</v>
+      </c>
+      <c r="E2253">
+        <v>12</v>
+      </c>
+      <c r="F2253" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2253">
+        <v>1</v>
+      </c>
+      <c r="H2253">
+        <v>820</v>
+      </c>
+      <c r="I2253">
+        <v>1348.5</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2254">
+        <v>1121446</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2254" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2254">
+        <v>2023</v>
+      </c>
+      <c r="E2254">
+        <v>12</v>
+      </c>
+      <c r="F2254" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2254">
+        <v>1</v>
+      </c>
+      <c r="H2254">
+        <v>1100</v>
+      </c>
+      <c r="I2254">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2255">
+        <v>1122615</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2255" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2255">
+        <v>2023</v>
+      </c>
+      <c r="E2255">
+        <v>11</v>
+      </c>
+      <c r="F2255" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2255">
+        <v>8</v>
+      </c>
+      <c r="H2255">
+        <v>1320</v>
+      </c>
+      <c r="I2255">
+        <v>2217.61</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2256">
+        <v>1122615</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2256" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2256">
+        <v>2023</v>
+      </c>
+      <c r="E2256">
+        <v>12</v>
+      </c>
+      <c r="F2256" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2256">
+        <v>10</v>
+      </c>
+      <c r="H2256">
+        <v>1650</v>
+      </c>
+      <c r="I2256">
+        <v>2875.92</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2257">
+        <v>1124427</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2257" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2257">
+        <v>2023</v>
+      </c>
+      <c r="E2257">
+        <v>11</v>
+      </c>
+      <c r="F2257" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2257">
+        <v>4</v>
+      </c>
+      <c r="H2257">
+        <v>2664</v>
+      </c>
+      <c r="I2257">
+        <v>4402.88</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2258">
+        <v>1124427</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2258" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2258">
+        <v>2023</v>
+      </c>
+      <c r="E2258">
+        <v>12</v>
+      </c>
+      <c r="F2258" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2258">
+        <v>10</v>
+      </c>
+      <c r="H2258">
+        <v>6660</v>
+      </c>
+      <c r="I2258">
+        <v>10822.35</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2259">
+        <v>1124919</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2259" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2259">
+        <v>2023</v>
+      </c>
+      <c r="E2259">
+        <v>11</v>
+      </c>
+      <c r="F2259" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2259">
+        <v>3</v>
+      </c>
+      <c r="H2259">
+        <v>2850</v>
+      </c>
+      <c r="I2259">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2260">
+        <v>1124919</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2260" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2260">
+        <v>2023</v>
+      </c>
+      <c r="E2260">
+        <v>12</v>
+      </c>
+      <c r="F2260" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2260">
+        <v>2</v>
+      </c>
+      <c r="H2260">
+        <v>1900</v>
+      </c>
+      <c r="I2260">
+        <v>2734.2</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2261">
+        <v>1125035</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2261" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2261">
+        <v>2023</v>
+      </c>
+      <c r="E2261">
+        <v>12</v>
+      </c>
+      <c r="F2261" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2261">
+        <v>1</v>
+      </c>
+      <c r="H2261">
+        <v>558.45000000000005</v>
+      </c>
+      <c r="I2261">
+        <v>970.01</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2262">
+        <v>1125044</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2262" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2262">
+        <v>2023</v>
+      </c>
+      <c r="E2262">
+        <v>11</v>
+      </c>
+      <c r="F2262" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2262">
+        <v>1</v>
+      </c>
+      <c r="H2262">
+        <v>78</v>
+      </c>
+      <c r="I2262">
+        <v>135.01</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2263">
+        <v>1125044</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2263" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2263">
+        <v>2023</v>
+      </c>
+      <c r="E2263">
+        <v>12</v>
+      </c>
+      <c r="F2263" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2263">
+        <v>5</v>
+      </c>
+      <c r="H2263">
+        <v>390</v>
+      </c>
+      <c r="I2263">
+        <v>675.05</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2264">
+        <v>1126417</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2264" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2264">
+        <v>2023</v>
+      </c>
+      <c r="E2264">
+        <v>11</v>
+      </c>
+      <c r="F2264" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2264">
+        <v>9</v>
+      </c>
+      <c r="H2264">
+        <v>2010.6</v>
+      </c>
+      <c r="I2264">
+        <v>3530.82</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2265">
+        <v>1126417</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2265" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2265">
+        <v>2023</v>
+      </c>
+      <c r="E2265">
+        <v>12</v>
+      </c>
+      <c r="F2265" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2265">
+        <v>8</v>
+      </c>
+      <c r="H2265">
+        <v>1787.2</v>
+      </c>
+      <c r="I2265">
+        <v>3125.81</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2266">
+        <v>1127075</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2266" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2266">
+        <v>2023</v>
+      </c>
+      <c r="E2266">
+        <v>11</v>
+      </c>
+      <c r="F2266" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2266">
+        <v>2</v>
+      </c>
+      <c r="H2266">
+        <v>1249.5</v>
+      </c>
+      <c r="I2266">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2267">
+        <v>1127075</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2267" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2267">
+        <v>2023</v>
+      </c>
+      <c r="E2267">
+        <v>12</v>
+      </c>
+      <c r="F2267" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2267">
+        <v>5</v>
+      </c>
+      <c r="H2267">
+        <v>3123.75</v>
+      </c>
+      <c r="I2267">
+        <v>5320.62</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2268">
+        <v>1127115</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2268" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2268">
+        <v>2023</v>
+      </c>
+      <c r="E2268">
+        <v>11</v>
+      </c>
+      <c r="F2268" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2268">
+        <v>2</v>
+      </c>
+      <c r="H2268">
+        <v>86</v>
+      </c>
+      <c r="I2268">
+        <v>156.24</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2269">
+        <v>1128435</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2269" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2269">
+        <v>2023</v>
+      </c>
+      <c r="E2269">
+        <v>11</v>
+      </c>
+      <c r="F2269" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2269">
+        <v>5</v>
+      </c>
+      <c r="H2269">
+        <v>5775</v>
+      </c>
+      <c r="I2269">
+        <v>7999.1</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2270">
+        <v>1128435</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2270" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2270">
+        <v>2023</v>
+      </c>
+      <c r="E2270">
+        <v>12</v>
+      </c>
+      <c r="F2270" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2270">
+        <v>9</v>
+      </c>
+      <c r="H2270">
+        <v>10395</v>
+      </c>
+      <c r="I2270">
+        <v>14079.6</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2271">
+        <v>1128756</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2271" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2271">
+        <v>2023</v>
+      </c>
+      <c r="E2271">
+        <v>12</v>
+      </c>
+      <c r="F2271" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2271">
+        <v>1</v>
+      </c>
+      <c r="H2271">
+        <v>380</v>
+      </c>
+      <c r="I2271">
+        <v>629.30999999999995</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2272">
+        <v>1129398</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2272" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2272">
+        <v>2023</v>
+      </c>
+      <c r="E2272">
+        <v>12</v>
+      </c>
+      <c r="F2272" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2272">
+        <v>1</v>
+      </c>
+      <c r="H2272">
+        <v>750</v>
+      </c>
+      <c r="I2272">
+        <v>955.01</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2273">
+        <v>1129421</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2273" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2273">
+        <v>2023</v>
+      </c>
+      <c r="E2273">
+        <v>11</v>
+      </c>
+      <c r="F2273" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2273">
+        <v>1</v>
+      </c>
+      <c r="H2273">
+        <v>880</v>
+      </c>
+      <c r="I2273">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2274">
+        <v>1129421</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2274" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2274">
+        <v>2023</v>
+      </c>
+      <c r="E2274">
+        <v>12</v>
+      </c>
+      <c r="F2274" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2274">
+        <v>3</v>
+      </c>
+      <c r="H2274">
+        <v>2640</v>
+      </c>
+      <c r="I2274">
+        <v>4503.33</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2275">
+        <v>1129436</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2275" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2275">
+        <v>2023</v>
+      </c>
+      <c r="E2275">
+        <v>11</v>
+      </c>
+      <c r="F2275" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2275">
+        <v>2</v>
+      </c>
+      <c r="H2275">
+        <v>330</v>
+      </c>
+      <c r="I2275">
+        <v>706.54</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2276">
+        <v>1129436</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2276" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2276">
+        <v>2023</v>
+      </c>
+      <c r="E2276">
+        <v>12</v>
+      </c>
+      <c r="F2276" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2276">
+        <v>4</v>
+      </c>
+      <c r="H2276">
+        <v>660</v>
+      </c>
+      <c r="I2276">
+        <v>1482.76</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2277">
+        <v>1129441</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2277">
+        <v>2023</v>
+      </c>
+      <c r="E2277">
+        <v>12</v>
+      </c>
+      <c r="F2277" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2277">
+        <v>2</v>
+      </c>
+      <c r="H2277">
+        <v>2110</v>
+      </c>
+      <c r="I2277">
+        <v>3421.28</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2278">
+        <v>1129533</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2278" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2278">
+        <v>2023</v>
+      </c>
+      <c r="E2278">
+        <v>12</v>
+      </c>
+      <c r="F2278" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2278">
+        <v>1</v>
+      </c>
+      <c r="H2278">
+        <v>157.5</v>
+      </c>
+      <c r="I2278">
+        <v>266.83999999999997</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2279">
+        <v>1130042</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2279">
+        <v>2023</v>
+      </c>
+      <c r="E2279">
+        <v>11</v>
+      </c>
+      <c r="F2279" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2279">
+        <v>3</v>
+      </c>
+      <c r="H2279">
+        <v>1347.3</v>
+      </c>
+      <c r="I2279">
+        <v>2259.0700000000002</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2280">
+        <v>1130042</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2280" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2280">
+        <v>2023</v>
+      </c>
+      <c r="E2280">
+        <v>12</v>
+      </c>
+      <c r="F2280" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2280">
+        <v>8</v>
+      </c>
+      <c r="H2280">
+        <v>3592.8</v>
+      </c>
+      <c r="I2280">
+        <v>5940.28</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2281">
+        <v>1130493</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2281">
+        <v>2023</v>
+      </c>
+      <c r="E2281">
+        <v>11</v>
+      </c>
+      <c r="F2281" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2281">
+        <v>9</v>
+      </c>
+      <c r="H2281">
+        <v>6293.7</v>
+      </c>
+      <c r="I2281">
+        <v>9155</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2282">
+        <v>1130493</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2282">
+        <v>2023</v>
+      </c>
+      <c r="E2282">
+        <v>12</v>
+      </c>
+      <c r="F2282" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2282">
+        <v>6</v>
+      </c>
+      <c r="H2282">
+        <v>4195.8</v>
+      </c>
+      <c r="I2282">
+        <v>7175.8</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2283">
+        <v>1130592</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2283" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2283">
+        <v>2023</v>
+      </c>
+      <c r="E2283">
+        <v>12</v>
+      </c>
+      <c r="F2283" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2283">
+        <v>3</v>
+      </c>
+      <c r="H2283">
+        <v>972</v>
+      </c>
+      <c r="I2283">
+        <v>1653.68</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2284">
+        <v>1130593</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2284" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2284">
+        <v>2023</v>
+      </c>
+      <c r="E2284">
+        <v>12</v>
+      </c>
+      <c r="F2284" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2284">
+        <v>3</v>
+      </c>
+      <c r="H2284">
+        <v>972</v>
+      </c>
+      <c r="I2284">
+        <v>1627.36</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2285">
+        <v>1130594</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2285" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2285">
+        <v>2023</v>
+      </c>
+      <c r="E2285">
+        <v>11</v>
+      </c>
+      <c r="F2285" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2285">
+        <v>2</v>
+      </c>
+      <c r="H2285">
+        <v>648</v>
+      </c>
+      <c r="I2285">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2286">
+        <v>1130594</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2286">
+        <v>2023</v>
+      </c>
+      <c r="E2286">
+        <v>12</v>
+      </c>
+      <c r="F2286" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2286">
+        <v>4</v>
+      </c>
+      <c r="H2286">
+        <v>1296</v>
+      </c>
+      <c r="I2286">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2287">
+        <v>1130642</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2287">
+        <v>2023</v>
+      </c>
+      <c r="E2287">
+        <v>11</v>
+      </c>
+      <c r="F2287" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2287">
+        <v>2</v>
+      </c>
+      <c r="H2287">
+        <v>3300</v>
+      </c>
+      <c r="I2287">
+        <v>4482.1400000000003</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2288">
+        <v>1130642</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2288">
+        <v>2023</v>
+      </c>
+      <c r="E2288">
+        <v>12</v>
+      </c>
+      <c r="F2288" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2288">
+        <v>5</v>
+      </c>
+      <c r="H2288">
+        <v>8250</v>
+      </c>
+      <c r="I2288">
+        <v>13761.34</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2289">
+        <v>1131208</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2289">
+        <v>2023</v>
+      </c>
+      <c r="E2289">
+        <v>12</v>
+      </c>
+      <c r="F2289" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2289">
+        <v>3</v>
+      </c>
+      <c r="H2289">
+        <v>216</v>
+      </c>
+      <c r="I2289">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2290">
+        <v>1131259</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2290">
+        <v>2023</v>
+      </c>
+      <c r="E2290">
+        <v>11</v>
+      </c>
+      <c r="F2290" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2290">
+        <v>1</v>
+      </c>
+      <c r="H2290">
+        <v>90.224999999999994</v>
+      </c>
+      <c r="I2290">
+        <v>154.4</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2291">
+        <v>1131354</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2291" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2291">
+        <v>2023</v>
+      </c>
+      <c r="E2291">
+        <v>11</v>
+      </c>
+      <c r="F2291" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2291">
+        <v>1</v>
+      </c>
+      <c r="H2291">
+        <v>758.79</v>
+      </c>
+      <c r="I2291">
+        <v>1248.43</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2292">
+        <v>1131354</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2292" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2292">
+        <v>2023</v>
+      </c>
+      <c r="E2292">
+        <v>12</v>
+      </c>
+      <c r="F2292" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2292">
+        <v>1</v>
+      </c>
+      <c r="H2292">
+        <v>758.79</v>
+      </c>
+      <c r="I2292">
+        <v>1248.43</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2293">
+        <v>1131355</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2293">
+        <v>2023</v>
+      </c>
+      <c r="E2293">
+        <v>11</v>
+      </c>
+      <c r="F2293" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2293">
+        <v>4</v>
+      </c>
+      <c r="H2293">
+        <v>2912.4</v>
+      </c>
+      <c r="I2293">
+        <v>4843.0600000000004</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2294">
+        <v>1131355</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2294">
+        <v>2023</v>
+      </c>
+      <c r="E2294">
+        <v>12</v>
+      </c>
+      <c r="F2294" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2294">
+        <v>3</v>
+      </c>
+      <c r="H2294">
+        <v>2184.3000000000002</v>
+      </c>
+      <c r="I2294">
+        <v>3588.06</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2295">
+        <v>1131512</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2295">
+        <v>2023</v>
+      </c>
+      <c r="E2295">
+        <v>12</v>
+      </c>
+      <c r="F2295" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2295">
+        <v>2</v>
+      </c>
+      <c r="H2295">
+        <v>2758.62</v>
+      </c>
+      <c r="I2295">
+        <v>4689.68</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2296">
+        <v>1131515</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2296">
+        <v>2023</v>
+      </c>
+      <c r="E2296">
+        <v>12</v>
+      </c>
+      <c r="F2296" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2296">
+        <v>1</v>
+      </c>
+      <c r="H2296">
+        <v>355</v>
+      </c>
+      <c r="I2296">
+        <v>607.77</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2297">
+        <v>1131894</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2297">
+        <v>2023</v>
+      </c>
+      <c r="E2297">
+        <v>12</v>
+      </c>
+      <c r="F2297" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2297">
+        <v>1</v>
+      </c>
+      <c r="H2297">
+        <v>582.94000000000005</v>
+      </c>
+      <c r="I2297">
+        <v>967.3</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2298">
+        <v>1131907</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2298">
+        <v>2023</v>
+      </c>
+      <c r="E2298">
+        <v>11</v>
+      </c>
+      <c r="F2298" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2298">
+        <v>4</v>
+      </c>
+      <c r="H2298">
+        <v>3078</v>
+      </c>
+      <c r="I2298">
+        <v>5113.1899999999996</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2299">
+        <v>1131907</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2299">
+        <v>2023</v>
+      </c>
+      <c r="E2299">
+        <v>12</v>
+      </c>
+      <c r="F2299" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2299">
+        <v>18</v>
+      </c>
+      <c r="H2299">
+        <v>13851</v>
+      </c>
+      <c r="I2299">
+        <v>23289.57</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2300">
+        <v>1132104</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2300">
+        <v>2023</v>
+      </c>
+      <c r="E2300">
+        <v>11</v>
+      </c>
+      <c r="F2300" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2300">
+        <v>1</v>
+      </c>
+      <c r="H2300">
+        <v>684</v>
+      </c>
+      <c r="I2300">
+        <v>1176.72</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2301">
+        <v>1132104</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2301">
+        <v>2023</v>
+      </c>
+      <c r="E2301">
+        <v>12</v>
+      </c>
+      <c r="F2301" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2301">
+        <v>4</v>
+      </c>
+      <c r="H2301">
+        <v>2736</v>
+      </c>
+      <c r="I2301">
+        <v>4540.9799999999996</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2302">
+        <v>1132148</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2302">
+        <v>2023</v>
+      </c>
+      <c r="E2302">
+        <v>12</v>
+      </c>
+      <c r="F2302" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2302">
+        <v>3</v>
+      </c>
+      <c r="H2302">
+        <v>1644.3</v>
+      </c>
+      <c r="I2302">
+        <v>1755.03</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2303">
+        <v>1132173</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2303" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2303">
+        <v>2023</v>
+      </c>
+      <c r="E2303">
+        <v>12</v>
+      </c>
+      <c r="F2303" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2303">
+        <v>1</v>
+      </c>
+      <c r="H2303">
+        <v>739.31</v>
+      </c>
+      <c r="I2303">
+        <v>1324.67</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2304">
+        <v>1132174</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2304" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2304">
+        <v>2023</v>
+      </c>
+      <c r="E2304">
+        <v>12</v>
+      </c>
+      <c r="F2304" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2304">
+        <v>1</v>
+      </c>
+      <c r="H2304">
+        <v>1100.98</v>
+      </c>
+      <c r="I2304">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2305">
+        <v>1133986</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2305" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2305">
+        <v>2023</v>
+      </c>
+      <c r="E2305">
+        <v>12</v>
+      </c>
+      <c r="F2305" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2305">
+        <v>3</v>
+      </c>
+      <c r="H2305">
+        <v>972</v>
+      </c>
+      <c r="I2305">
+        <v>1680.03</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2306">
+        <v>1133987</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2306" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2306">
+        <v>2023</v>
+      </c>
+      <c r="E2306">
+        <v>11</v>
+      </c>
+      <c r="F2306" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2306">
+        <v>1</v>
+      </c>
+      <c r="H2306">
+        <v>324</v>
+      </c>
+      <c r="I2306">
+        <v>533.69000000000005</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2307">
+        <v>1133987</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2307" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2307">
+        <v>2023</v>
+      </c>
+      <c r="E2307">
+        <v>12</v>
+      </c>
+      <c r="F2307" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2307">
+        <v>1</v>
+      </c>
+      <c r="H2307">
+        <v>324</v>
+      </c>
+      <c r="I2307">
+        <v>560.01</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2308">
+        <v>1133988</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2308">
+        <v>2023</v>
+      </c>
+      <c r="E2308">
+        <v>11</v>
+      </c>
+      <c r="F2308" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2308">
+        <v>1</v>
+      </c>
+      <c r="H2308">
+        <v>324</v>
+      </c>
+      <c r="I2308">
+        <v>533.69000000000005</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2309">
+        <v>1133988</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2309">
+        <v>2023</v>
+      </c>
+      <c r="E2309">
+        <v>12</v>
+      </c>
+      <c r="F2309" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2309">
+        <v>2</v>
+      </c>
+      <c r="H2309">
+        <v>648</v>
+      </c>
+      <c r="I2309">
+        <v>1120.02</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2310">
+        <v>1134929</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2310">
+        <v>2023</v>
+      </c>
+      <c r="E2310">
+        <v>12</v>
+      </c>
+      <c r="F2310" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2310">
+        <v>2</v>
+      </c>
+      <c r="H2310">
+        <v>1188</v>
+      </c>
+      <c r="I2310">
+        <v>2003.51</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2311">
+        <v>1134931</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2311" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2311">
+        <v>2023</v>
+      </c>
+      <c r="E2311">
+        <v>11</v>
+      </c>
+      <c r="F2311" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2311">
+        <v>4</v>
+      </c>
+      <c r="H2311">
+        <v>422.4</v>
+      </c>
+      <c r="I2311">
+        <v>790.6</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2312">
+        <v>1134931</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2312" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2312">
+        <v>2023</v>
+      </c>
+      <c r="E2312">
+        <v>12</v>
+      </c>
+      <c r="F2312" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2312">
+        <v>3</v>
+      </c>
+      <c r="H2312">
+        <v>316.8</v>
+      </c>
+      <c r="I2312">
+        <v>581.20000000000005</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2313">
+        <v>1135091</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2313" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2313">
+        <v>2023</v>
+      </c>
+      <c r="E2313">
+        <v>12</v>
+      </c>
+      <c r="F2313" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2313">
+        <v>3</v>
+      </c>
+      <c r="H2313">
+        <v>1800</v>
+      </c>
+      <c r="I2313">
+        <v>3690.62</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2314">
+        <v>1135275</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2314">
+        <v>2023</v>
+      </c>
+      <c r="E2314">
+        <v>11</v>
+      </c>
+      <c r="F2314" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2314">
+        <v>3</v>
+      </c>
+      <c r="H2314">
+        <v>413.1</v>
+      </c>
+      <c r="I2314">
+        <v>700.07</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2315">
+        <v>1135282</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2315" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2315">
+        <v>2023</v>
+      </c>
+      <c r="E2315">
+        <v>11</v>
+      </c>
+      <c r="F2315" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2315">
+        <v>2</v>
+      </c>
+      <c r="H2315">
+        <v>2378</v>
+      </c>
+      <c r="I2315">
+        <v>3816.77</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2316">
+        <v>1135282</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2316" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2316">
+        <v>2023</v>
+      </c>
+      <c r="E2316">
+        <v>12</v>
+      </c>
+      <c r="F2316" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2316">
+        <v>5</v>
+      </c>
+      <c r="H2316">
+        <v>5945</v>
+      </c>
+      <c r="I2316">
+        <v>9864.6</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2317">
+        <v>1135298</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2317" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2317">
+        <v>2023</v>
+      </c>
+      <c r="E2317">
+        <v>12</v>
+      </c>
+      <c r="F2317" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2317">
+        <v>5</v>
+      </c>
+      <c r="H2317">
+        <v>2840</v>
+      </c>
+      <c r="I2317">
+        <v>4292.76</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2318">
+        <v>1135503</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2318" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2318">
+        <v>2023</v>
+      </c>
+      <c r="E2318">
+        <v>12</v>
+      </c>
+      <c r="F2318" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2318">
+        <v>2</v>
+      </c>
+      <c r="H2318">
+        <v>1084</v>
+      </c>
+      <c r="I2318">
+        <v>1677.3</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2319">
+        <v>1135580</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2319">
+        <v>2023</v>
+      </c>
+      <c r="E2319">
+        <v>11</v>
+      </c>
+      <c r="F2319" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2319">
+        <v>2</v>
+      </c>
+      <c r="H2319">
+        <v>1320</v>
+      </c>
+      <c r="I2319">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2320">
+        <v>1135580</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2320" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2320">
+        <v>2023</v>
+      </c>
+      <c r="E2320">
+        <v>12</v>
+      </c>
+      <c r="F2320" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2320">
+        <v>10</v>
+      </c>
+      <c r="H2320">
+        <v>6600</v>
+      </c>
+      <c r="I2320">
+        <v>11738.62</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2321">
+        <v>1135581</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2321" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2321">
+        <v>2023</v>
+      </c>
+      <c r="E2321">
+        <v>11</v>
+      </c>
+      <c r="F2321" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2321">
+        <v>3</v>
+      </c>
+      <c r="H2321">
+        <v>2970</v>
+      </c>
+      <c r="I2321">
+        <v>5979.83</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2322">
+        <v>1135582</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2322" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2322">
+        <v>2023</v>
+      </c>
+      <c r="E2322">
+        <v>12</v>
+      </c>
+      <c r="F2322" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2322">
+        <v>2</v>
+      </c>
+      <c r="H2322">
+        <v>1400</v>
+      </c>
+      <c r="I2322">
+        <v>2296.7399999999998</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2323">
+        <v>1135678</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2323" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2323">
+        <v>2023</v>
+      </c>
+      <c r="E2323">
+        <v>12</v>
+      </c>
+      <c r="F2323" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2323">
+        <v>1</v>
+      </c>
+      <c r="H2323">
+        <v>153</v>
+      </c>
+      <c r="I2323">
+        <v>350.01</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2324">
+        <v>1135940</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2324" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2324">
+        <v>2023</v>
+      </c>
+      <c r="E2324">
+        <v>11</v>
+      </c>
+      <c r="F2324" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2324">
+        <v>1</v>
+      </c>
+      <c r="H2324">
+        <v>700</v>
+      </c>
+      <c r="I2324">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2325">
+        <v>1135940</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2325" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2325">
+        <v>2023</v>
+      </c>
+      <c r="E2325">
+        <v>12</v>
+      </c>
+      <c r="F2325" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2325">
+        <v>4</v>
+      </c>
+      <c r="H2325">
+        <v>2800</v>
+      </c>
+      <c r="I2325">
+        <v>4648.1400000000003</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2326">
+        <v>1135941</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2326" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2326">
+        <v>2023</v>
+      </c>
+      <c r="E2326">
+        <v>12</v>
+      </c>
+      <c r="F2326" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2326">
+        <v>2</v>
+      </c>
+      <c r="H2326">
+        <v>2550</v>
+      </c>
+      <c r="I2326">
+        <v>4136.0200000000004</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2327">
+        <v>1136875</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2327" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2327">
+        <v>2023</v>
+      </c>
+      <c r="E2327">
+        <v>12</v>
+      </c>
+      <c r="F2327" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2327">
+        <v>4</v>
+      </c>
+      <c r="H2327">
+        <v>10570.56</v>
+      </c>
+      <c r="I2327">
+        <v>17346.23</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2328">
+        <v>1136876</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2328" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2328">
+        <v>2023</v>
+      </c>
+      <c r="E2328">
+        <v>12</v>
+      </c>
+      <c r="F2328" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2328">
+        <v>4</v>
+      </c>
+      <c r="H2328">
+        <v>8501.2000000000007</v>
+      </c>
+      <c r="I2328">
+        <v>14120.21</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2329">
+        <v>1136879</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2329" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2329">
+        <v>2023</v>
+      </c>
+      <c r="E2329">
+        <v>12</v>
+      </c>
+      <c r="F2329" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2329">
+        <v>1</v>
+      </c>
+      <c r="H2329">
+        <v>2642.64</v>
+      </c>
+      <c r="I2329">
+        <v>4495.01</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I2126" xr:uid="{06EE165A-14A1-4021-B04B-56BB1DBE6CCB}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2E812B-3281-45E9-A9C8-F9D55FD6FA84}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>